--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
@@ -763,25 +763,25 @@
         <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="S2" t="n">
         <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.5</v>
@@ -790,10 +790,10 @@
         <v>2.42</v>
       </c>
       <c r="W2" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="X2" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y2" t="n">
         <v>15.5</v>
@@ -805,25 +805,25 @@
         <v>45</v>
       </c>
       <c r="AB2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
         <v>200</v>
       </c>
       <c r="AH2" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI2" t="n">
         <v>10.25</v>
@@ -838,16 +838,16 @@
         <v>11.25</v>
       </c>
       <c r="AM2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AO2" t="n">
         <v>27</v>
       </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>150</v>
@@ -859,19 +859,19 @@
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW2" t="n">
         <v>500</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AY2" t="n">
         <v>7.8</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,44 +676,49 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OWWWzX7d</t>
+          <t>GbmHWyQ7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -723,170 +728,173 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:50</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>El Gouna</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>2.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="J2" t="n">
-        <v>4.9</v>
+        <v>4.55</v>
       </c>
       <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.32</v>
       </c>
-      <c r="L2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.5</v>
-      </c>
       <c r="R2" t="n">
-        <v>2.42</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="U2" t="n">
-        <v>1.5</v>
+        <v>1.93</v>
       </c>
       <c r="V2" t="n">
-        <v>2.42</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
-        <v>18.5</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="n">
         <v>45</v>
       </c>
       <c r="AB2" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="n">
         <v>9</v>
       </c>
-      <c r="AD2" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>11.25</v>
+        <v>18.5</v>
       </c>
       <c r="AM2" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
         <v>150</v>
       </c>
       <c r="AR2" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS2" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB2" t="n">
         <v>250</v>
       </c>
-      <c r="AT2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>500</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>37</v>
-      </c>
       <c r="BC2" t="n">
-        <v>120</v>
+        <v>51</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,370 @@
         <v>51</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tvIigywR</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>QATAR - QSL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Al Khor</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Qatar SC</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OxptyxHr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>QATAR - QSL</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Al-Gharafa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Al Arabi</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,6 +1261,188 @@
         <v>51</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I1rqmbET</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1111,25 +1111,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H4" t="n">
         <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K4" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
         <v>9.75</v>
@@ -1138,16 +1138,16 @@
         <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R4" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T4" t="n">
         <v>3.7</v>
@@ -1159,19 +1159,19 @@
         <v>2.82</v>
       </c>
       <c r="W4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X4" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -1180,7 +1180,7 @@
         <v>9.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE4" t="n">
         <v>10.5</v>
@@ -1192,31 +1192,31 @@
         <v>120</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM4" t="n">
         <v>19.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AP4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>35</v>
@@ -1237,16 +1237,16 @@
         <v>32</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA4" t="n">
         <v>55</v>
@@ -1440,6 +1440,188 @@
         <v>81</v>
       </c>
       <c r="BD5" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>r9LRh2ph</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Al Okhdood</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K4" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
         <v>3.15</v>
@@ -1144,13 +1144,13 @@
         <v>1.42</v>
       </c>
       <c r="R4" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.24</v>
       </c>
       <c r="T4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="U4" t="n">
         <v>1.38</v>
@@ -1159,16 +1159,16 @@
         <v>2.82</v>
       </c>
       <c r="W4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1192,31 +1192,31 @@
         <v>120</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL4" t="n">
         <v>19.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AO4" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ4" t="n">
         <v>35</v>
@@ -1225,10 +1225,10 @@
         <v>45</v>
       </c>
       <c r="AS4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AU4" t="n">
         <v>6</v>
@@ -1237,19 +1237,19 @@
         <v>32</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AX4" t="n">
         <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB4" t="n">
         <v>120</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
         <v>6.5</v>
@@ -1305,10 +1305,10 @@
         <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1362,7 +1362,7 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,7 +1371,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
@@ -1398,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX5" t="n">
         <v>34</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
         <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1493,10 +1493,10 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1553,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
@@ -1562,28 +1562,28 @@
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
       </c>
       <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
         <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="J4" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="K4" t="n">
         <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1144,7 +1144,7 @@
         <v>1.42</v>
       </c>
       <c r="R4" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.24</v>
@@ -1168,13 +1168,13 @@
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC4" t="n">
         <v>9.75</v>
@@ -1192,40 +1192,40 @@
         <v>120</v>
       </c>
       <c r="AH4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK4" t="n">
         <v>35</v>
       </c>
       <c r="AL4" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR4" t="n">
         <v>45</v>
       </c>
       <c r="AS4" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT4" t="n">
         <v>3.65</v>
@@ -1237,19 +1237,19 @@
         <v>32</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ4" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA4" t="n">
         <v>55</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>60</v>
       </c>
       <c r="BB4" t="n">
         <v>120</v>
@@ -1493,10 +1493,10 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -1493,10 +1493,10 @@
         <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,145 +747,145 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.15</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="J2" t="n">
-        <v>4.55</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P2" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q2" t="n">
         <v>2.32</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T2" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="n">
         <v>45</v>
       </c>
-      <c r="AB2" t="n">
-        <v>55</v>
-      </c>
       <c r="AC2" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="n">
         <v>800</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AI2" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>9</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR2" t="n">
         <v>150</v>
       </c>
-      <c r="AR2" t="n">
-        <v>175</v>
-      </c>
       <c r="AS2" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV2" t="n">
         <v>60</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BA2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BB2" t="n">
         <v>250</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I1rqmbET</t>
+          <t>K6I8gpX9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>4.05</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.91</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>6.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>3.35</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="T5" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V5" t="n">
         <v>3.25</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>18.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>12</v>
       </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
+      <c r="AK5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL5" t="n">
         <v>21</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AM5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>r9LRh2ph</t>
+          <t>I1rqmbET</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,162 +1466,344 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.4</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
         <v>4.33</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.8</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>21</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
       <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR6" t="n">
         <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
       </c>
       <c r="AS6" t="n">
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BC6" t="n">
         <v>81</v>
       </c>
       <c r="BD6" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>r9LRh2ph</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Al Okhdood</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -768,43 +768,43 @@
         <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R2" t="n">
         <v>1.55</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T2" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA2" t="n">
         <v>37</v>
@@ -813,7 +813,7 @@
         <v>45</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AD2" t="n">
         <v>5.4</v>
@@ -825,7 +825,7 @@
         <v>80</v>
       </c>
       <c r="AG2" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH2" t="n">
         <v>6.3</v>
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
@@ -846,13 +846,13 @@
         <v>35</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ2" t="n">
         <v>110</v>
@@ -864,22 +864,22 @@
         <v>300</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW2" t="n">
         <v>4.1</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AZ2" t="n">
         <v>50</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H5" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -1305,10 +1305,10 @@
         <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1320,37 +1320,37 @@
         <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="R5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="S5" t="n">
         <v>1.18</v>
       </c>
       <c r="T5" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
         <v>13.5</v>
@@ -1362,34 +1362,34 @@
         <v>10.75</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
         <v>10.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL5" t="n">
         <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AN5" t="n">
         <v>5</v>
@@ -1401,31 +1401,31 @@
         <v>11.75</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AS5" t="n">
         <v>75</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AU5" t="n">
         <v>5.9</v>
       </c>
       <c r="AV5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AZ5" t="n">
         <v>50</v>
@@ -1434,7 +1434,7 @@
         <v>50</v>
       </c>
       <c r="BB5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC5" t="n">
         <v>250</v>
@@ -1553,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH6" t="n">
         <v>17</v>
@@ -1675,10 +1675,10 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L2" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
         <v>1.45</v>
@@ -789,103 +789,103 @@
         <v>2.55</v>
       </c>
       <c r="U2" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
         <v>8.75</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA2" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD2" t="n">
         <v>5.6</v>
       </c>
-      <c r="AD2" t="n">
-        <v>5.4</v>
-      </c>
       <c r="AE2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG2" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AI2" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO2" t="n">
         <v>23</v>
       </c>
-      <c r="AL2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>21</v>
-      </c>
       <c r="AP2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR2" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS2" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AT2" t="n">
         <v>2.55</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AX2" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BA2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB2" t="n">
         <v>250</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tvIigywR</t>
+          <t>8Yq9Ycee</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Qatar SC</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.72</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4.55</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>7.8</v>
+        <v>4.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>3.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>2.65</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.85</v>
+        <v>2.27</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT3" t="n">
         <v>2.25</v>
       </c>
-      <c r="W3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="X3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.85</v>
-      </c>
       <c r="AU3" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV3" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.55</v>
+        <v>5.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AY3" t="n">
-        <v>18.5</v>
+        <v>35</v>
       </c>
       <c r="AZ3" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="BA3" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="BB3" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OxptyxHr</t>
+          <t>tvIigywR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1102,160 +1102,160 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Qatar SC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="L4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9.75</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="W4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK4" t="n">
         <v>27</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>35</v>
       </c>
       <c r="AL4" t="n">
         <v>18.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AO4" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AR4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AS4" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.65</v>
+        <v>2.85</v>
       </c>
       <c r="AU4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.3</v>
+        <v>4.55</v>
       </c>
       <c r="AX4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AZ4" t="n">
         <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BB4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="BC4" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K6I8gpX9</t>
+          <t>OxptyxHr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="J5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.4</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.62</v>
-      </c>
       <c r="L5" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="R5" t="n">
-        <v>3.4</v>
+        <v>2.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="T5" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="U5" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="V5" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="W5" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC5" t="n">
         <v>9.75</v>
       </c>
-      <c r="Z5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE5" t="n">
         <v>10.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AG5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.75</v>
+        <v>11.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AR5" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AS5" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AT5" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="AU5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AV5" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX5" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
         <v>50</v>
       </c>
       <c r="BA5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BC5" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I1rqmbET</t>
+          <t>K6I8gpX9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>3.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.29</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>18</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Z6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AP6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>26</v>
       </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AR6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>r9LRh2ph</t>
+          <t>I1rqmbET</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,162 +1648,344 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K7" t="n">
         <v>2.4</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P7" t="n">
         <v>4.33</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.91</v>
       </c>
       <c r="W7" t="n">
         <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
         <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>21</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
       <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR7" t="n">
         <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>51</v>
       </c>
       <c r="AS7" t="n">
         <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
       </c>
       <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>r9LRh2ph</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Al Okhdood</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="J2" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="L2" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
         <v>8.75</v>
@@ -810,43 +810,43 @@
         <v>45</v>
       </c>
       <c r="AB2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="AD2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH2" t="n">
         <v>5.6</v>
       </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AI2" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AM2" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
@@ -855,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR2" t="n">
         <v>175</v>
@@ -864,31 +864,31 @@
         <v>400</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AV2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AX2" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BA2" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
@@ -932,31 +932,31 @@
         <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L3" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
         <v>2.65</v>
@@ -983,25 +983,25 @@
         <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF3" t="n">
         <v>110</v>
@@ -1013,55 +1013,55 @@
         <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO3" t="n">
         <v>12.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR3" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS3" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT3" t="n">
         <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>80</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ3" t="n">
         <v>150</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K7" t="n">
         <v>2.4</v>
@@ -1675,16 +1675,16 @@
         <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>1.67</v>
@@ -1699,13 +1699,13 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>7</v>
@@ -1714,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>12</v>
@@ -1726,13 +1726,13 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
         <v>800</v>
@@ -1747,7 +1747,7 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
         <v>51</v>
@@ -1759,13 +1759,13 @@
         <v>3.4</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GbmHWyQ7</t>
+          <t>EssDGebM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>El Gouna</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T2" t="n">
         <v>2.75</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.42</v>
-      </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK2" t="n">
         <v>13</v>
       </c>
-      <c r="Z2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AL2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX2" t="n">
         <v>9</v>
       </c>
-      <c r="AK2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP2" t="n">
+      <c r="AY2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>29</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>50</v>
-      </c>
       <c r="BA2" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8Yq9Ycee</t>
+          <t>GbmHWyQ7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>El Gouna</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>3.85</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.95</v>
+        <v>4.45</v>
       </c>
       <c r="K3" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="L3" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.6</v>
       </c>
-      <c r="T3" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AB3" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="AD3" t="n">
         <v>5.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="AJ3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AX3" t="n">
         <v>13</v>
       </c>
-      <c r="AK3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM3" t="n">
+      <c r="AY3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>60</v>
       </c>
-      <c r="AN3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS3" t="n">
+      <c r="BA3" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB3" t="n">
         <v>400</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>200</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>500</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tvIigywR</t>
+          <t>8Yq9Ycee</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Qatar SC</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.72</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="K4" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>3.65</v>
+        <v>2.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>2.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2.02</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2.85</v>
+        <v>2.27</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT4" t="n">
         <v>2.25</v>
       </c>
-      <c r="W4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY4" t="n">
         <v>32</v>
       </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="BA4" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OxptyxHr</t>
+          <t>tvIigywR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Qatar SC</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
-        <v>2.72</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9.75</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="W5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK5" t="n">
         <v>27</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>35</v>
       </c>
       <c r="AL5" t="n">
         <v>18.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AO5" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="AR5" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AS5" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.65</v>
+        <v>2.85</v>
       </c>
       <c r="AU5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.3</v>
+        <v>4.55</v>
       </c>
       <c r="AX5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AZ5" t="n">
         <v>50</v>
       </c>
       <c r="BA5" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BB5" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="BC5" t="n">
-        <v>350</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K6I8gpX9</t>
+          <t>OxptyxHr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
-        <v>2.32</v>
+        <v>2.67</v>
       </c>
       <c r="K6" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="L6" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>6.5</v>
+        <v>5.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>3.4</v>
+        <v>2.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="T6" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="U6" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="V6" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="W6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC6" t="n">
         <v>9.75</v>
       </c>
-      <c r="Z6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AD6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE6" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE6" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>50</v>
       </c>
-      <c r="AL6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>55</v>
       </c>
-      <c r="BA6" t="n">
-        <v>50</v>
-      </c>
       <c r="BB6" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BC6" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I1rqmbET</t>
+          <t>K6I8gpX9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="L7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P7" t="n">
         <v>6.5</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>18</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="n">
         <v>13</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
       <c r="AB7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>26</v>
       </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AR7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD7" t="n">
         <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>r9LRh2ph</t>
+          <t>I1rqmbET</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,162 +1830,344 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K8" t="n">
         <v>2.4</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
         <v>2</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
         <v>7.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO8" t="n">
         <v>7</v>
       </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR8" t="n">
         <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
       </c>
       <c r="AS8" t="n">
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
       </c>
       <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>r9LRh2ph</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Al Okhdood</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.85</v>
+        <v>4.15</v>
       </c>
       <c r="H3" t="n">
         <v>2.62</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="J3" t="n">
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="M3" t="n">
         <v>1.16</v>
@@ -959,40 +959,40 @@
         <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R3" t="n">
         <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
       </c>
       <c r="V3" t="n">
         <v>1.6</v>
       </c>
       <c r="W3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="n">
         <v>4.65</v>
@@ -1001,7 +1001,7 @@
         <v>5.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>150</v>
@@ -1010,37 +1010,37 @@
         <v>900</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AI3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ3" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS3" t="n">
         <v>450</v>
@@ -1055,19 +1055,19 @@
         <v>90</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BB3" t="n">
         <v>400</v>
@@ -1475,124 +1475,124 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.67</v>
+        <v>2.45</v>
       </c>
       <c r="K6" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO6" t="n">
         <v>9.75</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="W6" t="n">
-        <v>14</v>
-      </c>
-      <c r="X6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AR6" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AU6" t="n">
         <v>6</v>
@@ -1601,25 +1601,25 @@
         <v>32</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AX6" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="BA6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BB6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC6" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1839,55 +1839,55 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
         <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1905,7 +1905,7 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
         <v>10</v>
@@ -1914,19 +1914,19 @@
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -1938,25 +1938,25 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1977,7 +1977,7 @@
         <v>126</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
         <v>500</v>
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -2063,13 +2063,13 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>9</v>
@@ -2084,13 +2084,13 @@
         <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2123,13 +2123,13 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2168,6 +2168,188 @@
         <v>81</v>
       </c>
       <c r="BD9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>G2TuVbho</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W10" t="n">
+        <v>13</v>
+      </c>
+      <c r="X10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD10" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -1296,55 +1296,55 @@
         <v>2.72</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
         <v>1.37</v>
       </c>
       <c r="T5" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W5" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
         <v>9.75</v>
@@ -1353,16 +1353,16 @@
         <v>32</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" t="n">
         <v>11.5</v>
@@ -1371,46 +1371,46 @@
         <v>45</v>
       </c>
       <c r="AG5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>9.25</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>18.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="AU5" t="n">
         <v>6.5</v>
@@ -1419,19 +1419,19 @@
         <v>50</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB5" t="n">
         <v>200</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
@@ -1881,28 +1881,28 @@
         <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>15</v>
@@ -1917,16 +1917,16 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -1941,13 +1941,13 @@
         <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1959,19 +1959,19 @@
         <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
         <v>34</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
         <v>126</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2063,25 +2063,25 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -2102,28 +2102,28 @@
         <v>500</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
@@ -2132,7 +2132,7 @@
         <v>29</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
         <v>126</v>
@@ -2147,10 +2147,10 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GbmHWyQ7</t>
+          <t>8Yq9Ycee</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>El Gouna</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.15</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.18</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.75</v>
+        <v>2.95</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L3" t="n">
-        <v>2.82</v>
+        <v>4.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
         <v>1.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="W3" t="n">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>5.4</v>
       </c>
       <c r="AE3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
         <v>19</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>150</v>
       </c>
-      <c r="AG3" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>37</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>55</v>
-      </c>
       <c r="BA3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="BB3" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC3" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8Yq9Ycee</t>
+          <t>tvIigywR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,167 +1092,167 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Al Khor</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>Qatar SC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.72</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>2.42</v>
       </c>
       <c r="J4" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="L4" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.57</v>
       </c>
-      <c r="P4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>2.27</v>
       </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH4" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM4" t="n">
         <v>24</v>
       </c>
-      <c r="AB4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AN4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP4" t="n">
         <v>19</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>24</v>
       </c>
       <c r="AQ4" t="n">
         <v>60</v>
       </c>
       <c r="AR4" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.87</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AV4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA4" t="n">
         <v>80</v>
       </c>
-      <c r="AW4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>200</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>500</v>
       </c>
       <c r="BC4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tvIigywR</t>
+          <t>OxptyxHr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1284,160 +1284,160 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>Al-Gharafa</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Qatar SC</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.72</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I5" t="n">
-        <v>2.42</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="K5" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="T5" t="n">
-        <v>2.87</v>
+        <v>3.6</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="V5" t="n">
-        <v>2.27</v>
+        <v>2.67</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="X5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH5" t="n">
         <v>16</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AI5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO5" t="n">
         <v>9.75</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AP5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV5" t="n">
         <v>32</v>
       </c>
-      <c r="AA5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>50</v>
-      </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BA5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB5" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OxptyxHr</t>
+          <t>K6I8gpX9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>3.65</v>
+        <v>4.35</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="P6" t="n">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.55</v>
+        <v>3.55</v>
       </c>
       <c r="S6" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="T6" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="U6" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="V6" t="n">
-        <v>2.67</v>
+        <v>3.3</v>
       </c>
       <c r="W6" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>23</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>30</v>
-      </c>
       <c r="AR6" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AS6" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AV6" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="BA6" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BB6" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="BC6" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>K6I8gpX9</t>
+          <t>I1rqmbET</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.91</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W7" t="n">
-        <v>18</v>
-      </c>
-      <c r="X7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>22</v>
-      </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>10.75</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AL7" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="BC7" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I1rqmbET</t>
+          <t>r9LRh2ph</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1830,157 +1830,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
       </c>
       <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
         <v>34</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="n">
         <v>19</v>
       </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>r9LRh2ph</t>
+          <t>G2TuVbho</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,344 +2012,162 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>2.88</v>
       </c>
       <c r="J9" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.25</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="W9" t="n">
+        <v>13</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD9" t="n">
         <v>8</v>
       </c>
-      <c r="X9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AE9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>12</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
         <v>51</v>
       </c>
-      <c r="AW9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA9" t="n">
+      <c r="BB9" t="n">
         <v>81</v>
       </c>
-      <c r="BB9" t="n">
-        <v>151</v>
-      </c>
       <c r="BC9" t="n">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>G2TuVbho</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Al Ahli SC</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W10" t="n">
-        <v>13</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD10" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tvIigywR</t>
+          <t>K6I8gpX9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,160 +1102,160 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Khor</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Qatar SC</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.72</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L4" t="n">
         <v>3.3</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.05</v>
-      </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="P4" t="n">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.25</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>3.55</v>
       </c>
       <c r="S4" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="T4" t="n">
-        <v>2.87</v>
+        <v>4.6</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="V4" t="n">
-        <v>2.27</v>
+        <v>3.3</v>
       </c>
       <c r="W4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC4" t="n">
         <v>11</v>
       </c>
-      <c r="X4" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF4" t="n">
         <v>24</v>
       </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>45</v>
-      </c>
       <c r="AG4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC4" t="n">
         <v>250</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OxptyxHr</t>
+          <t>I1rqmbET</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Gharafa</t>
+          <t>Al Shabab</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="H5" t="n">
-        <v>3.65</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.45</v>
+        <v>1.83</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD5" t="n">
         <v>9.5</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
         <v>3.6</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AO5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP5" t="n">
         <v>17</v>
       </c>
-      <c r="AC5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="BC5" t="n">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K6I8gpX9</t>
+          <t>r9LRh2ph</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.25</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.75</v>
-      </c>
       <c r="L6" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>6.7</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>3.55</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH6" t="n">
         <v>13</v>
       </c>
-      <c r="AB6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>26</v>
-      </c>
       <c r="AI6" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY6" t="n">
         <v>29</v>
       </c>
-      <c r="AS6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="BA6" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I1rqmbET</t>
+          <t>G2TuVbho</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,526 +1648,162 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
+        <v>21</v>
+      </c>
+      <c r="N7" t="n">
         <v>1.03</v>
       </c>
-      <c r="N7" t="n">
-        <v>10.5</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>2.75</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD7" t="n">
         <v>8</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AE7" t="n">
         <v>11</v>
       </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
         <v>21</v>
       </c>
-      <c r="AI7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
         <v>51</v>
       </c>
-      <c r="AW7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>101</v>
-      </c>
       <c r="BB7" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>r9LRh2ph</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>12:10</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Al Okhdood</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Al Orubah</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>G2TuVbho</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Al Ittihad</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Al Ahli SC</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W9" t="n">
-        <v>13</v>
-      </c>
-      <c r="X9" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD9" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I1rqmbET</t>
+          <t>r9LRh2ph</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,157 +1284,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Shabab</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
         <v>8.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>23</v>
       </c>
       <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
         <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI5" t="n">
         <v>21</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="n">
         <v>34</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>r9LRh2ph</t>
+          <t>G2TuVbho</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,160 +1466,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T6" t="n">
         <v>4</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>12</v>
       </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
         <v>51</v>
       </c>
-      <c r="AG6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>81</v>
       </c>
-      <c r="BB6" t="n">
-        <v>151</v>
-      </c>
       <c r="BC6" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G2TuVbho</t>
+          <t>Q5UoY3ef</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,158 +1638,158 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="n">
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY7" t="n">
         <v>21</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W7" t="n">
-        <v>15</v>
-      </c>
-      <c r="X7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>17</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
@@ -1798,12 +1798,194 @@
         <v>51</v>
       </c>
       <c r="BB7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC7" t="n">
         <v>81</v>
       </c>
-      <c r="BC7" t="n">
-        <v>300</v>
-      </c>
       <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>YVXgWsQ6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8Yq9Ycee</t>
+          <t>Sp7nVfDF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.95</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.27</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
         <v>23</v>
       </c>
-      <c r="AA3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K6I8gpX9</t>
+          <t>p2kdKwac</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>4.35</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.07</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>3.55</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>4.6</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.29</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
         <v>11</v>
       </c>
-      <c r="AD4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>30</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>13.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
         <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY4" t="n">
         <v>23</v>
       </c>
-      <c r="AR4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>r9LRh2ph</t>
+          <t>8Yq9Ycee</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Enppi</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.8</v>
       </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>2.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>2.65</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
         <v>8</v>
       </c>
-      <c r="X5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AR5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AS5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G2TuVbho</t>
+          <t>K6I8gpX9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Rayyan</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W6" t="n">
+        <v>20</v>
+      </c>
+      <c r="X6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W6" t="n">
-        <v>15</v>
-      </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>29</v>
-      </c>
       <c r="AG6" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM6" t="n">
         <v>17</v>
       </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>21</v>
-      </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AS6" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="AT6" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV6" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
         <v>13</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BA6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD6" t="n">
         <v>51</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>350</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q5UoY3ef</t>
+          <t>G2TuVbho</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,158 +1638,158 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V7" t="n">
         <v>2.75</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="W7" t="n">
+        <v>15</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>12</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>12</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AQ7" t="n">
         <v>34</v>
       </c>
-      <c r="AA7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AR7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>13</v>
       </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AY7" t="n">
         <v>17</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
@@ -1798,10 +1798,10 @@
         <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YVXgWsQ6</t>
+          <t>Q5UoY3ef</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,162 +1830,344 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.81</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="J8" t="n">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" t="n">
         <v>17</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W8" t="n">
-        <v>10</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
         <v>11</v>
       </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
         <v>17</v>
       </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AM8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY8" t="n">
         <v>21</v>
       </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AZ8" t="n">
         <v>41</v>
       </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ8" t="n">
+      <c r="BA8" t="n">
         <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>67</v>
       </c>
       <c r="BB8" t="n">
         <v>126</v>
       </c>
       <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>YVXgWsQ6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC9" t="n">
         <v>351</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD9" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
@@ -1129,10 +1129,10 @@
         <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1159,7 +1159,7 @@
         <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1177,13 +1177,13 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -1204,7 +1204,7 @@
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
         <v>29</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
         <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="K6" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="L6" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1502,37 +1502,37 @@
         <v>1.08</v>
       </c>
       <c r="P6" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="T6" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="U6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="V6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="W6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>14.5</v>
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE6" t="n">
         <v>10.75</v>
@@ -1562,64 +1562,64 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="n">
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AP6" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>35</v>
       </c>
       <c r="AS6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AU6" t="n">
         <v>6</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BB6" t="n">
         <v>80</v>
       </c>
       <c r="BC6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J2" t="n">
         <v>5.5</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -795,10 +795,10 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
@@ -837,7 +837,7 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -861,7 +861,7 @@
         <v>126</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.75</v>
@@ -876,7 +876,7 @@
         <v>3.6</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
@@ -1293,145 +1293,145 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="L5" t="n">
         <v>4.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="O5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.57</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AB5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC5" t="n">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="AD5" t="n">
         <v>5.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AP5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX5" t="n">
         <v>24</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>23</v>
-      </c>
       <c r="AY5" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AZ5" t="n">
         <v>150</v>
       </c>
       <c r="BA5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB5" t="n">
         <v>500</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="K6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1499,127 +1499,127 @@
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="R6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="T6" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="U6" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="V6" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="W6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
         <v>14.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AE6" t="n">
         <v>10.75</v>
       </c>
       <c r="AF6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI6" t="n">
         <v>23</v>
       </c>
-      <c r="AG6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>25</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL6" t="n">
         <v>19</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
         <v>10.25</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS6" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AT6" t="n">
-        <v>4.45</v>
+        <v>4.15</v>
       </c>
       <c r="AU6" t="n">
         <v>6</v>
       </c>
       <c r="AV6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AX6" t="n">
         <v>13.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AZ6" t="n">
         <v>45</v>
       </c>
       <c r="BA6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BB6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BC6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD6" t="n">
         <v>51</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.5</v>
@@ -1693,10 +1693,10 @@
         <v>2.63</v>
       </c>
       <c r="S7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U7" t="n">
         <v>1.4</v>
@@ -1708,7 +1708,7 @@
         <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>
@@ -1717,7 +1717,7 @@
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
         <v>19</v>
@@ -1738,13 +1738,13 @@
         <v>81</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
@@ -1774,7 +1774,7 @@
         <v>81</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU7" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -795,7 +795,7 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
@@ -813,13 +813,13 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -861,7 +861,7 @@
         <v>126</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.75</v>
@@ -1293,94 +1293,94 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
         <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="L5" t="n">
         <v>4.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="N5" t="n">
-        <v>4.55</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="P5" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AB5" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.55</v>
+        <v>4.1</v>
       </c>
       <c r="AD5" t="n">
         <v>5.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
         <v>60</v>
@@ -1389,43 +1389,43 @@
         <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AQ5" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR5" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS5" t="n">
         <v>500</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AX5" t="n">
         <v>24</v>
       </c>
       <c r="AY5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ5" t="n">
         <v>150</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J7" t="n">
         <v>2.75</v>
@@ -1687,10 +1687,10 @@
         <v>5.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.25</v>
@@ -1708,7 +1708,7 @@
         <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -819,7 +819,7 @@
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1165,13 +1165,13 @@
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
         <v>34</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1180,10 +1180,10 @@
         <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -1192,7 +1192,7 @@
         <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
         <v>11</v>
@@ -1201,7 +1201,7 @@
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>19</v>
@@ -1255,7 +1255,7 @@
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1296,7 +1296,7 @@
         <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="I5" t="n">
         <v>3.6</v>
@@ -1308,16 +1308,16 @@
         <v>1.72</v>
       </c>
       <c r="L5" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N5" t="n">
         <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P5" t="n">
         <v>1.95</v>
@@ -1326,7 +1326,7 @@
         <v>3.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
         <v>1.75</v>
@@ -1353,10 +1353,10 @@
         <v>29</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC5" t="n">
         <v>4.1</v>
@@ -1374,22 +1374,22 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AI5" t="n">
         <v>16.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
         <v>60</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
         <v>4.05</v>
@@ -1398,13 +1398,13 @@
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR5" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS5" t="n">
         <v>500</v>
@@ -1428,10 +1428,10 @@
         <v>40</v>
       </c>
       <c r="AZ5" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB5" t="n">
         <v>500</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K6I8gpX9</t>
+          <t>G2TuVbho</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Rayyan</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W6" t="n">
+        <v>13</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
         <v>10</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
         <v>17</v>
       </c>
-      <c r="X6" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AQ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY6" t="n">
         <v>19</v>
       </c>
-      <c r="AM6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>14</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G2TuVbho</t>
+          <t>Q5UoY3ef</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,158 +1638,158 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.75</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="U7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
         <v>11</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P7" t="n">
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN7" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W7" t="n">
-        <v>15</v>
-      </c>
-      <c r="X7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP7" t="n">
         <v>23</v>
       </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY7" t="n">
         <v>21</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>17</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
@@ -1798,10 +1798,10 @@
         <v>51</v>
       </c>
       <c r="BB7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC7" t="n">
         <v>81</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>350</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q5UoY3ef</t>
+          <t>YVXgWsQ6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,344 +1830,162 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>12</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>11</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH8" t="n">
         <v>17</v>
       </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AI8" t="n">
         <v>23</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
         <v>29</v>
       </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
         <v>41</v>
       </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="AS8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY8" t="n">
         <v>23</v>
       </c>
-      <c r="AN8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AZ8" t="n">
         <v>51</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="BA8" t="n">
         <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>51</v>
       </c>
       <c r="BB8" t="n">
         <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>YVXgWsQ6</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Servette</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Luzern</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>17</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD9" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
         <v>5.5</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -813,10 +813,10 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -837,7 +837,7 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>15</v>
@@ -876,7 +876,7 @@
         <v>3.6</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
         <v>21</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
@@ -1126,7 +1126,7 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -1159,10 +1159,10 @@
         <v>1.95</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
@@ -1177,13 +1177,13 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -1213,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1499,16 +1499,16 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.25</v>
@@ -1699,7 +1699,7 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
         <v>2.1</v>
@@ -1881,10 +1881,10 @@
         <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W8" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,16 +771,16 @@
         <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8Yq9Ycee</t>
+          <t>G2TuVbho</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Enppi</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>19</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.29</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>3.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.42</v>
+        <v>1.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>2.63</v>
       </c>
       <c r="W5" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>10.25</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
         <v>11</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AF5" t="n">
         <v>29</v>
       </c>
-      <c r="AA5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>200</v>
-      </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.3</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.05</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>15</v>
       </c>
-      <c r="AP5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>24</v>
-      </c>
       <c r="AY5" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>350</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G2TuVbho</t>
+          <t>Q5UoY3ef</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,158 +1456,158 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W6" t="n">
         <v>11</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>13</v>
       </c>
-      <c r="X6" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
+      <c r="AN6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY6" t="n">
         <v>21</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
@@ -1616,10 +1616,10 @@
         <v>51</v>
       </c>
       <c r="BB6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC6" t="n">
         <v>81</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>350</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q5UoY3ef</t>
+          <t>YVXgWsQ6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1648,344 +1648,162 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>12</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="AF7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AI7" t="n">
         <v>23</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AJ7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
         <v>29</v>
       </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AM7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR7" t="n">
         <v>41</v>
       </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM7" t="n">
+      <c r="AS7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
         <v>23</v>
       </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="AZ7" t="n">
         <v>51</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="BA7" t="n">
         <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
       </c>
       <c r="BB7" t="n">
         <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>YVXgWsQ6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Servette</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Luzern</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>17</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W8" t="n">
-        <v>10</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD8" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EssDGebM</t>
+          <t>Sp7nVfDF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,31 +738,31 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L2" t="n">
         <v>5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -795,22 +795,22 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
         <v>9.5</v>
@@ -828,43 +828,43 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>29</v>
       </c>
-      <c r="AN2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>101</v>
-      </c>
       <c r="AR2" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -873,22 +873,22 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sp7nVfDF</t>
+          <t>p2kdKwac</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,37 +920,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -971,109 +971,109 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.95</v>
       </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
         <v>13</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI3" t="n">
         <v>11</v>
       </c>
-      <c r="AI3" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>51</v>
       </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>29</v>
-      </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC3" t="n">
         <v>126</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>p2kdKwac</t>
+          <t>4KF6LtYI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Estudiantes L.P.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J4" t="n">
         <v>2.25</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.44</v>
       </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="n">
         <v>17</v>
       </c>
-      <c r="Y4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
         <v>26</v>
       </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY4" t="n">
         <v>51</v>
       </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AZ4" t="n">
         <v>201</v>
       </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G2TuVbho</t>
+          <t>zaK6HXWp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I5" t="n">
         <v>2.2</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>19</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
         <v>5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W5" t="n">
-        <v>13</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
         <v>23</v>
       </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>11</v>
-      </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU5" t="n">
         <v>11</v>
       </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT5" t="n">
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
         <v>3.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
         <v>15</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="BC5" t="n">
-        <v>350</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q5UoY3ef</t>
+          <t>fkdXCT56</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1517,118 +1517,118 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
         <v>17</v>
       </c>
-      <c r="Y6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
         <v>29</v>
       </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AJ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
         <v>41</v>
       </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>17</v>
-      </c>
       <c r="AM6" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR6" t="n">
         <v>51</v>
       </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC6" t="n">
         <v>51</v>
       </c>
-      <c r="BB6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
       <c r="BD6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YVXgWsQ6</t>
+          <t>G2TuVbho</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,134 +1638,134 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R7" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W7" t="n">
+        <v>13</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10</v>
       </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
         <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
         <v>23</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>29</v>
-      </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1774,7 +1774,7 @@
         <v>81</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU7" t="n">
         <v>7</v>
@@ -1783,27 +1783,391 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q5UoY3ef</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>YVXgWsQ6</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW9" t="n">
         <v>6</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX9" t="n">
         <v>19</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY9" t="n">
         <v>23</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ9" t="n">
         <v>51</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB9" t="n">
         <v>126</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC9" t="n">
         <v>351</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD9" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -944,7 +944,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -977,10 +977,10 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -1010,7 +1010,7 @@
         <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>11</v>
@@ -1031,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1475,46 +1475,46 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
@@ -1523,7 +1523,7 @@
         <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>7.5</v>
@@ -1532,19 +1532,19 @@
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
         <v>12</v>
       </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1556,16 +1556,16 @@
         <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1577,22 +1577,22 @@
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1616,7 +1616,7 @@
         <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1887,22 +1887,22 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB8" t="n">
         <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
@@ -1920,19 +1920,19 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>23</v>
@@ -1941,16 +1941,16 @@
         <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -1968,13 +1968,13 @@
         <v>4.33</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -798,7 +798,7 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -831,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -846,16 +846,16 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -882,13 +882,13 @@
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -947,37 +947,37 @@
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,10 +1004,10 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
         <v>8</v>
@@ -1043,10 +1043,10 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1073,7 +1073,7 @@
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G2TuVbho</t>
+          <t>Q5UoY3ef</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
         <v>2.63</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
+        <v>12</v>
+      </c>
+      <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
         <v>13</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="n">
         <v>15</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX7" t="n">
         <v>11</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>15</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
         <v>81</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q5UoY3ef</t>
+          <t>YVXgWsQ6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,344 +1830,162 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T8" t="n">
         <v>3.5</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="U8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>12</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>12</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX8" t="n">
         <v>19</v>
       </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="AY8" t="n">
         <v>23</v>
       </c>
-      <c r="AN8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AZ8" t="n">
         <v>51</v>
       </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>34</v>
-      </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
         <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>YVXgWsQ6</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Servette</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Luzern</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>17</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD9" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -768,13 +768,13 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q2" t="n">
         <v>2.1</v>
@@ -804,7 +804,7 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>15</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>26</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1311,10 +1311,10 @@
         <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.67</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
         <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1708,19 +1708,19 @@
         <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>26</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
         <v>12</v>
@@ -1741,7 +1741,7 @@
         <v>8.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>9</v>
@@ -1750,7 +1750,7 @@
         <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
@@ -1759,16 +1759,16 @@
         <v>5.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1789,10 +1789,10 @@
         <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
@@ -1842,7 +1842,7 @@
         <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -1860,52 +1860,52 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>10</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
         <v>7.5</v>
@@ -1914,19 +1914,19 @@
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
@@ -1938,7 +1938,7 @@
         <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO8" t="n">
         <v>9.5</v>
@@ -1953,13 +1953,13 @@
         <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>41</v>
@@ -1968,13 +1968,13 @@
         <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -768,7 +768,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -828,7 +828,7 @@
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -885,7 +885,7 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -959,10 +959,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="R3" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -977,19 +977,19 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1010,16 +1010,16 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>9.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>19</v>
@@ -1040,7 +1040,7 @@
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>151</v>
@@ -1055,7 +1055,7 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
         <v>13</v>
@@ -1073,7 +1073,7 @@
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1678,7 +1678,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1911,7 +1911,7 @@
         <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1926,7 +1926,7 @@
         <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>41</v>
@@ -1935,13 +1935,13 @@
         <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1977,10 +1977,10 @@
         <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -753,7 +753,7 @@
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -762,25 +762,25 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -807,16 +807,16 @@
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -825,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -849,10 +849,10 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>34</v>
@@ -864,19 +864,19 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -885,13 +885,13 @@
         <v>81</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
         <v>251</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -950,7 +950,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.3</v>
@@ -1073,7 +1073,7 @@
         <v>151</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
         <v>3.75</v>
@@ -1296,10 +1296,10 @@
         <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
@@ -1675,10 +1675,10 @@
         <v>2.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1687,10 +1687,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
@@ -1848,10 +1848,10 @@
         <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -789,49 +789,49 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
         <v>15</v>
       </c>
-      <c r="AA2" t="n">
-        <v>17</v>
-      </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>8.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -846,10 +846,10 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -861,37 +861,37 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
         <v>2.63</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
         <v>3.75</v>
@@ -1296,10 +1296,10 @@
         <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
@@ -1623,370 +1623,6 @@
       </c>
       <c r="BD6" t="n">
         <v>51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Q5UoY3ef</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Grasshoppers</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Lugano</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>12</v>
-      </c>
-      <c r="X7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>YVXgWsQ6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Servette</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Luzern</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>15</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sp7nVfDF</t>
+          <t>4KF6LtYI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Estudiantes L.P.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W2" t="n">
         <v>4.75</v>
       </c>
-      <c r="J2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="X2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO2" t="n">
         <v>8.5</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR2" t="n">
         <v>67</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AS2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB2" t="n">
         <v>501</v>
       </c>
-      <c r="AH2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA2" t="n">
+      <c r="BC2" t="n">
         <v>126</v>
       </c>
-      <c r="BB2" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>151</v>
-      </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>p2kdKwac</t>
+          <t>zaK6HXWp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.05</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>2.63</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP3" t="n">
         <v>41</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AQ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR3" t="n">
         <v>201</v>
       </c>
-      <c r="AH3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="AS3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>51</v>
       </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>41</v>
-      </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4KF6LtYI</t>
+          <t>QkhwZa2I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,49 +1102,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Estudiantes L.P.</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1153,118 +1153,118 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>41</v>
       </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21</v>
-      </c>
       <c r="AK4" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>67</v>
+        <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
         <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA4" t="n">
         <v>101</v>
       </c>
-      <c r="AW4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>251</v>
-      </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zaK6HXWp</t>
+          <t>4CLspQAJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,133 +1284,133 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
         <v>2.2</v>
       </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X5" t="n">
         <v>5.5</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
         <v>7.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>101</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM5" t="n">
         <v>201</v>
       </c>
-      <c r="AH5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
+      <c r="AN5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
         <v>26</v>
       </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>11</v>
@@ -1419,22 +1419,22 @@
         <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BB5" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1517,10 +1517,10 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1553,25 +1553,25 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AN6" t="n">
         <v>3.6</v>
@@ -1622,6 +1622,188 @@
         <v>51</v>
       </c>
       <c r="BD6" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>jHktB7zJ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -950,7 +950,7 @@
         <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O3" t="n">
         <v>1.73</v>
@@ -995,13 +995,13 @@
         <v>67</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
         <v>126</v>
@@ -1010,13 +1010,13 @@
         <v>4.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
         <v>26</v>
@@ -1156,7 +1156,7 @@
         <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>
@@ -1335,10 +1335,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>4.5</v>
@@ -1517,10 +1517,10 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1699,10 +1699,10 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W7" t="n">
         <v>8.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -819,7 +819,7 @@
         <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
         <v>126</v>
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -864,7 +864,7 @@
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -947,10 +947,10 @@
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.73</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>2.1</v>
@@ -1496,19 +1496,19 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,16 +1517,16 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1541,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
@@ -1562,7 +1562,7 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
@@ -1571,7 +1571,7 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
         <v>3.6</v>
@@ -1580,7 +1580,7 @@
         <v>7.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1589,13 +1589,13 @@
         <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
         <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1613,7 +1613,7 @@
         <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -947,10 +947,10 @@
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.73</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
         <v>5.5</v>
@@ -1517,10 +1517,10 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
@@ -1553,16 +1553,16 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK6" t="n">
         <v>41</v>
@@ -1583,13 +1583,13 @@
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
         <v>3.25</v>
@@ -1601,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX6" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -783,10 +783,10 @@
         <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -795,16 +795,16 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -813,10 +813,10 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>29</v>
@@ -840,16 +840,16 @@
         <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -864,7 +864,7 @@
         <v>301</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -885,7 +885,7 @@
         <v>201</v>
       </c>
       <c r="BA2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -953,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
         <v>3.4</v>
@@ -965,10 +965,10 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -995,7 +995,7 @@
         <v>67</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,22 +1004,22 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>4.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1058,7 +1058,7 @@
         <v>3.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1484,13 +1484,13 @@
         <v>6.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1511,10 +1511,10 @@
         <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U6" t="n">
         <v>1.8</v>
@@ -1577,22 +1577,22 @@
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>17</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>21</v>
-      </c>
       <c r="AR6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1601,19 +1601,19 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.9</v>
@@ -759,7 +759,7 @@
         <v>2.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>8</v>
@@ -825,16 +825,16 @@
         <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -855,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -873,7 +873,7 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -882,7 +882,7 @@
         <v>51</v>
       </c>
       <c r="AZ2" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA2" t="n">
         <v>301</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -953,22 +953,22 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -995,7 +995,7 @@
         <v>67</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,7 +1004,7 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG3" t="n">
         <v>4.75</v>
@@ -1016,10 +1016,10 @@
         <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1058,7 +1058,7 @@
         <v>3.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -795,10 +795,10 @@
         <v>1.44</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -813,16 +813,16 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -831,31 +831,31 @@
         <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -873,7 +873,7 @@
         <v>101</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -882,10 +882,10 @@
         <v>51</v>
       </c>
       <c r="AZ2" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA2" t="n">
         <v>251</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>301</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -959,10 +959,10 @@
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
         <v>1.75</v>
@@ -977,25 +977,25 @@
         <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="n">
         <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1004,13 +1004,13 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>11</v>
@@ -1031,7 +1031,7 @@
         <v>5.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
         <v>41</v>
@@ -1055,7 +1055,7 @@
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
         <v>15</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4KF6LtYI</t>
+          <t>QkhwZa2I</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,49 +738,49 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Estudiantes L.P.</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
         <v>1.53</v>
@@ -789,118 +789,118 @@
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>41</v>
       </c>
-      <c r="AC2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
+      <c r="AK2" t="n">
         <v>34</v>
       </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>67</v>
-      </c>
       <c r="AL2" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT2" t="n">
         <v>2.38</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
         <v>101</v>
       </c>
-      <c r="AW2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>251</v>
-      </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zaK6HXWp</t>
+          <t>4CLspQAJ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,55 +920,55 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.05</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -977,76 +977,76 @@
         <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="X3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="n">
         <v>17</v>
       </c>
-      <c r="Y3" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>41</v>
       </c>
-      <c r="AA3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>51</v>
-      </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>101</v>
       </c>
-      <c r="AG3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP3" t="n">
         <v>26</v>
       </c>
-      <c r="AP3" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
@@ -1055,22 +1055,22 @@
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BB3" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QkhwZa2I</t>
+          <t>jHktB7zJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,83 +1092,83 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Guabira</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Oriente Petrolero</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.4</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.44</v>
       </c>
-      <c r="P4" t="n">
+      <c r="T4" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1177,633 +1177,87 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
         <v>8</v>
       </c>
       <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
         <v>15</v>
       </c>
-      <c r="AI4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA4" t="n">
         <v>67</v>
       </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>101</v>
-      </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4CLspQAJ</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Rosario Central</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Barracas Central</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>fkdXCT56</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Aurora</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Independiente</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>jHktB7zJ</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Guabira</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Oriente Petrolero</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -798,10 +798,10 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
@@ -810,7 +810,7 @@
         <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
@@ -834,10 +834,10 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -846,16 +846,16 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
         <v>81</v>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -1076,7 +1076,7 @@
         <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1111,73 +1111,73 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1189,37 +1189,37 @@
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
@@ -1228,7 +1228,7 @@
         <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1237,7 +1237,7 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -777,10 +777,10 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.53</v>
@@ -795,10 +795,10 @@
         <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -825,7 +825,7 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -846,7 +846,7 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
@@ -876,7 +876,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -947,10 +947,10 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -959,10 +959,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
         <v>1.57</v>
@@ -977,16 +977,16 @@
         <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -998,13 +998,13 @@
         <v>6</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -1028,10 +1028,10 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
         <v>2.5</v>
@@ -789,10 +789,10 @@
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
@@ -825,19 +825,19 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="n">
         <v>34</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>41</v>
@@ -947,16 +947,16 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
         <v>2.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,188 +1079,6 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>jHktB7zJ</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>31/10/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Guabira</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Oriente Petrolero</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QkhwZa2I</t>
+          <t>EssDGebM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="K2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.95</v>
       </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>7</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL2" t="n">
         <v>15</v>
       </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AM2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP2" t="n">
         <v>34</v>
       </c>
-      <c r="AL2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX2" t="n">
         <v>9</v>
       </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>21</v>
       </c>
-      <c r="AY2" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4CLspQAJ</t>
+          <t>Sp7nVfDF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,173 +910,3267 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
         <v>7.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6</v>
-      </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
       </c>
       <c r="AE3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>p2kdKwac</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16:45</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ITALY - SERIE A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
         <v>26</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4KF6LtYI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Estudiantes L.P.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ind. Rivadavia</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF5" t="n">
         <v>101</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>zaK6HXWp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sarmiento Junin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>451</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>QkhwZa2I</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Atl. Tucuman</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>13</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
         <v>34</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4CLspQAJ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Rosario Central</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Barracas Central</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
         <v>26</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AF8" t="n">
         <v>101</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL8" t="n">
         <v>67</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM8" t="n">
         <v>81</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>201</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="BA8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fkdXCT56</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aurora</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>jHktB7zJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Guabira</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Oriente Petrolero</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GbmHWyQ7</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>El Gouna</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ZED</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>8Yq9Ycee</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EGYPT - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Modern Sport</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Enppi</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q12" t="n">
         <v>3.25</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="R12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU12" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AV12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>tvIigywR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>QATAR - QSL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Al Khor</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Qatar SC</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK13" t="n">
         <v>26</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AL13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>OxptyxHr</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>QATAR - QSL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Al-Gharafa</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Al Arabi</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>65</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>70</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>K6I8gpX9</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>QATAR - QSL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Al-Sadd</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Al Rayyan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>17</v>
+      </c>
+      <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV15" t="n">
         <v>29</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AW15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>I1rqmbET</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>11:50</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Al Shabab</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
         <v>67</v>
       </c>
-      <c r="AS3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT3" t="n">
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>r9LRh2ph</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Al Okhdood</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Al Orubah</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>G2TuVbho</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W18" t="n">
+        <v>13</v>
+      </c>
+      <c r="X18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE18" t="n">
         <v>11</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AF18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB18" t="n">
         <v>101</v>
       </c>
-      <c r="AW3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX3" t="n">
+      <c r="BC18" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q5UoY3ef</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Lugano</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W19" t="n">
+        <v>12</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
         <v>41</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>51</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>501</v>
-      </c>
-      <c r="BC3" t="n">
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
         <v>126</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BC19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>YVXgWsQ6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>31/10/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Servette</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Luzern</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
         <v>126</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
